--- a/corpus/corpus_v1.xlsx
+++ b/corpus/corpus_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17EF154-2BD1-4023-BF13-ECA3DF98334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9486E17-5EC5-404E-B18F-23AB15FBA747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="588">
   <si>
     <t>id</t>
   </si>
@@ -47,9 +47,6 @@
     <t>url (ground truth)</t>
   </si>
   <si>
-    <t>reference</t>
-  </si>
-  <si>
     <t>annotator</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>Computer science,Backpropagation,Artificial neural network,Feed forward,Artificial intelligence,Enhanced Data Rates for GSM Evolution</t>
   </si>
   <si>
-    <t>Pedregosa et al., 2011</t>
-  </si>
-  <si>
     <t>10.3389/frobt.2019.00049</t>
   </si>
   <si>
@@ -839,9 +833,6 @@
     <t>Rhythm,Ecology</t>
   </si>
   <si>
-    <t>https://cran.r-project.org/web/packages/activity/</t>
-  </si>
-  <si>
     <t>10.3390/ani11020562</t>
   </si>
   <si>
@@ -1116,9 +1107,6 @@
   </si>
   <si>
     <t xml:space="preserve">URL that the annotators think the software refers to. </t>
-  </si>
-  <si>
-    <t>Reference of the software, added by annotators</t>
   </si>
   <si>
     <t>Person or persons responsible for validating the ground truth</t>
@@ -2157,10 +2145,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B104" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2171,12 +2159,12 @@
     <col min="4" max="4" width="30.21875" style="3" customWidth="1"/>
     <col min="5" max="7" width="12.6640625" style="3"/>
     <col min="8" max="8" width="59.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3"/>
-    <col min="12" max="12" width="59.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="12.6640625" style="3"/>
+    <col min="9" max="10" width="12.6640625" style="3"/>
+    <col min="11" max="11" width="59.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -2208,4284 +2196,4120 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H12" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="H17" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="H18" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="H19" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="H20" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="H21" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="H22" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="H23" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="H24" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="H25" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H26" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="G27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H27" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H28" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="H29" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="H30" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="H31" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="H32" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="H33" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="H34" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="G35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="H35" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="G36" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="H36" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="G37" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="H37" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="G38" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="H38" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="H39" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="G40" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="H40" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="G41" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H41" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="G42" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H42" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="G43" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="H43" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="G44" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="H44" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="G45" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="H45" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H46" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="G47" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="H47" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="G48" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="H48" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="H49" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="G50" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="H50" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="G51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="H51" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="E52" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="G52" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="H52" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="E53" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="G53" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H53" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="G54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H54" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="G55" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="H55" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="H56" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="E57" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="G57" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="H57" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="G58" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="H58" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="G59" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="H59" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="G60" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="H60" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="G61" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="H61" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="H62" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="E63" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="G63" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="H63" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="H64" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="H65" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="H66" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="H67" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="H68" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="H69" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L70" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="G71" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="G72" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="G73" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="G74" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H75" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="H76" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="H78" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L78" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="H79" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="H80" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="H81" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L81" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="H82" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L82" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="F84" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="H84" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J84" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F84" s="7" t="s">
+      <c r="K84" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K84" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="F85" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>386</v>
-      </c>
       <c r="H85" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="F86" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>392</v>
-      </c>
       <c r="H86" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="H87" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="H88" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C89" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="H89" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K89" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="H90" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="F91" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>418</v>
-      </c>
       <c r="H91" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K91" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="H92" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="F93" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="H93" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="F94" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="H94" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="H95" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K95" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="H96" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="H97" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K97" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>450</v>
-      </c>
       <c r="H98" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K98" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="F99" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>456</v>
-      </c>
       <c r="H99" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K99" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L99" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="F100" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="H100" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>463</v>
-      </c>
       <c r="I100" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K100" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="L100" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>468</v>
-      </c>
       <c r="H101" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K101" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="L101" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C102" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="H102" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K102" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="H103" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K103" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C104" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>483</v>
-      </c>
       <c r="H104" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K104" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="F105" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>489</v>
-      </c>
       <c r="H105" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K105" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C106" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="H106" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L106" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="H107" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K107" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L107" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C108" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>504</v>
-      </c>
       <c r="H108" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K108" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L108" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="H109" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K109" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L109" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C110" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>514</v>
-      </c>
       <c r="H110" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K110" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="E111" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="F111" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="H111" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K111" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L111" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C112" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>525</v>
-      </c>
       <c r="H112" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K112" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="F113" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>531</v>
-      </c>
       <c r="H113" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K113" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L113" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>536</v>
-      </c>
       <c r="H114" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K114" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L114" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="H115" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K115" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L115" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C116" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>546</v>
-      </c>
       <c r="H116" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K116" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L116" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="H117" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K117" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L117" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="F118" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>557</v>
-      </c>
       <c r="H118" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K118" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L118" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="F119" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="H119" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K119" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L119" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C120" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>557</v>
-      </c>
       <c r="H120" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K120" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L120" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="F121" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>570</v>
-      </c>
       <c r="H121" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K121" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C122" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>575</v>
-      </c>
       <c r="H122" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K122" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L122" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>580</v>
-      </c>
       <c r="H123" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K123" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L123" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="F124" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="H124" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K124" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6667,90 +6491,86 @@
     <hyperlink ref="E61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="E62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="E63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I63" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E64" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I64" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E65" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E66" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I66" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E67" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I67" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E68" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E69" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E70" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E71" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E72" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E73" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E74" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E75" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E76" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E77" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E78" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E79" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E80" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E81" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E82" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E83" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="H35" r:id="rId88" xr:uid="{8E3D3C07-A1DF-45BD-8AD4-75DDD366862A}"/>
-    <hyperlink ref="H57:H62" r:id="rId89" display="https://github.com/ZaixuCui/PANDA" xr:uid="{A2CB303C-6B96-4817-83E4-41C22EA12383}"/>
-    <hyperlink ref="H68" r:id="rId90" xr:uid="{ADA2C313-CC44-45DA-8870-A0582B3E4113}"/>
-    <hyperlink ref="H69" r:id="rId91" xr:uid="{76FCB163-ED50-4DBC-A0E1-2F3F65C8ABE3}"/>
-    <hyperlink ref="H70:H73" r:id="rId92" display="https://www.rhino3d.com/" xr:uid="{B4809B50-A4EC-41E4-9785-1762609058CF}"/>
-    <hyperlink ref="H74:H75" r:id="rId93" display="https://www.rhino3d.com/" xr:uid="{5E36533B-8172-4B58-B3BC-99EEE2C0A335}"/>
-    <hyperlink ref="H76" r:id="rId94" xr:uid="{2E45DB8F-3A0E-490A-8509-635D8A2F3DB6}"/>
-    <hyperlink ref="H77" r:id="rId95" xr:uid="{AA689A24-9945-4EFC-8D85-A9D919ADD52D}"/>
-    <hyperlink ref="H78" r:id="rId96" xr:uid="{DEB83A23-1E9D-4EAA-83F2-F04572D375F2}"/>
-    <hyperlink ref="H79" r:id="rId97" xr:uid="{EC17B8CF-A311-41BC-9F4D-A3BC7B0DDC69}"/>
-    <hyperlink ref="H80:H81" r:id="rId98" display="https://www.rhino3d.com/" xr:uid="{332CBF04-5D33-4F0C-8625-9FD8177182F7}"/>
-    <hyperlink ref="H82" r:id="rId99" xr:uid="{E378DF0D-3339-4660-9ED7-B6770E235E48}"/>
-    <hyperlink ref="H83" r:id="rId100" xr:uid="{800F4166-C89D-43F2-9101-55DAEE8DAF98}"/>
-    <hyperlink ref="H106" r:id="rId101" xr:uid="{4DB9BF32-2E40-4FD1-B764-9D657B27D0B0}"/>
-    <hyperlink ref="H84" r:id="rId102" xr:uid="{095B13C8-EA3A-484D-A940-549028A05848}"/>
-    <hyperlink ref="H85:H99" r:id="rId103" display="https://github.com/alexdobin/STAR" xr:uid="{00F43458-B8AC-4E0E-B09F-8946462A6913}"/>
-    <hyperlink ref="H100" r:id="rId104" xr:uid="{7055A736-01E1-4AF8-85CA-45B773C1EE8E}"/>
-    <hyperlink ref="H101:H104" r:id="rId105" display="https://www.dnastar.com/" xr:uid="{C78180D7-218B-4918-AC5E-8A43A35310AD}"/>
-    <hyperlink ref="H105" r:id="rId106" xr:uid="{F2695FC1-29EA-4674-8F45-902012B3C8C4}"/>
-    <hyperlink ref="H107:H112" r:id="rId107" display="https://github.com/alexdobin/STAR" xr:uid="{D975C251-4E3C-484A-8614-2D288946FC00}"/>
-    <hyperlink ref="H113" r:id="rId108" xr:uid="{34FAF9B3-4D7F-44F7-A342-C504B1D017C4}"/>
-    <hyperlink ref="H118" r:id="rId109" xr:uid="{9B395F25-D6C5-4EF9-B84A-913B2BC925A9}"/>
-    <hyperlink ref="H119:H124" r:id="rId110" display="https://github.com/alexdobin/STAR" xr:uid="{548AC85C-BAD6-47C8-BBB5-DEAB57DF74AB}"/>
-    <hyperlink ref="L57:L62" r:id="rId111" display="https://github.com/ZaixuCui/PANDA" xr:uid="{BA6FFF82-71D0-45DD-BE37-384B5CD2DF65}"/>
-    <hyperlink ref="L68" r:id="rId112" xr:uid="{D3BFEADB-CE25-4173-B7D7-A69D7F61D81E}"/>
-    <hyperlink ref="L69" r:id="rId113" xr:uid="{8B8F44DF-3A84-4351-ACEB-32FBCD78E1D0}"/>
-    <hyperlink ref="L70:L73" r:id="rId114" display="https://www.rhino3d.com/" xr:uid="{CF424946-F767-4B2A-BC2B-0F91DA46D96C}"/>
-    <hyperlink ref="L74:L75" r:id="rId115" display="https://www.rhino3d.com/" xr:uid="{A1E2C419-9BD9-4DEC-A6A4-FC31545E64EE}"/>
-    <hyperlink ref="L76" r:id="rId116" xr:uid="{C0ACD060-C7EE-406B-81D5-D76323753F9C}"/>
-    <hyperlink ref="L77" r:id="rId117" xr:uid="{8F014C50-F415-4785-A84B-87A5DD070770}"/>
-    <hyperlink ref="L78" r:id="rId118" xr:uid="{B263EDDF-6B68-4320-9A24-DB335CF7176D}"/>
-    <hyperlink ref="L79" r:id="rId119" xr:uid="{63DAB0E0-9A00-4FBC-9C4E-2926C853FD4C}"/>
-    <hyperlink ref="L80:L81" r:id="rId120" display="https://www.rhino3d.com/" xr:uid="{88B6715E-7368-41A8-91F9-BC8FA7D4C2C6}"/>
-    <hyperlink ref="L82" r:id="rId121" xr:uid="{3528AF2D-A6B0-4271-A4E4-BAF8928F9F48}"/>
-    <hyperlink ref="L83" r:id="rId122" xr:uid="{5B1777D0-05AC-4A50-BA46-5DFEE7DC9021}"/>
-    <hyperlink ref="L106" r:id="rId123" xr:uid="{B1C09F9C-C4D8-43DC-AE6B-62F8A5CC9F48}"/>
-    <hyperlink ref="L84" r:id="rId124" xr:uid="{C280687E-1D4C-4A03-950C-CC783760FA78}"/>
-    <hyperlink ref="L85:L99" r:id="rId125" display="https://github.com/alexdobin/STAR" xr:uid="{1E87F349-A785-49E0-9F33-FAC46828D92B}"/>
-    <hyperlink ref="L100" r:id="rId126" xr:uid="{56FCEF6E-8728-4772-A7D0-6E6465F0D105}"/>
-    <hyperlink ref="L101:L104" r:id="rId127" display="https://www.dnastar.com/" xr:uid="{4BBFAC2D-04E1-45D8-90B9-9EAD04D469AA}"/>
-    <hyperlink ref="L105" r:id="rId128" xr:uid="{B3BF87FD-404E-4E67-8FED-E42E8B24885B}"/>
-    <hyperlink ref="L107:L112" r:id="rId129" display="https://github.com/alexdobin/STAR" xr:uid="{7A7C54B5-70F6-4FC0-947F-8265B85E363A}"/>
-    <hyperlink ref="L118" r:id="rId130" xr:uid="{4BFC74BE-E33A-4E39-823D-EE994D3BC1A1}"/>
-    <hyperlink ref="L119:L124" r:id="rId131" display="https://github.com/alexdobin/STAR" xr:uid="{86BF1402-F220-4D69-BAB1-2BF6E4E77565}"/>
-    <hyperlink ref="H114:H117" r:id="rId132" display="https://r-spatial.github.io/stars/,https://cran.r-project.org/package=stars,https://github.com/r-spatial/stars/" xr:uid="{DE11D5C5-93F5-404F-A569-E405FE19D170}"/>
-    <hyperlink ref="L113" r:id="rId133" xr:uid="{09D1EA13-B0D6-474E-B413-0F35A82F7D62}"/>
-    <hyperlink ref="L114:L117" r:id="rId134" display="https://r-spatial.github.io/stars/,https://cran.r-project.org/package=stars,https://github.com/r-spatial/stars/" xr:uid="{B9D257A4-87C2-47CA-8865-B8F828ED1FFB}"/>
-    <hyperlink ref="H53" r:id="rId135" xr:uid="{E12CEFAF-7E0D-455D-BDFE-27EBDD5FA9F0}"/>
-    <hyperlink ref="H54:H56" r:id="rId136" display="https://github.com/pandas-dev/pandas,https://pypi.org/project/pandas/" xr:uid="{59901C81-8995-49E0-85BD-D26B8B9E7154}"/>
-    <hyperlink ref="L35" r:id="rId137" xr:uid="{21E18BB2-58BB-46D5-9A9F-69850DCB1B2D}"/>
-    <hyperlink ref="L53" r:id="rId138" xr:uid="{FB8F58A7-9989-4DED-91AD-183D39D27C93}"/>
-    <hyperlink ref="L54:L56" r:id="rId139" display="https://github.com/pandas-dev/pandas,https://pypi.org/project/pandas/" xr:uid="{DA26FA8C-C552-4288-A811-2DE8F731C128}"/>
-    <hyperlink ref="H52" r:id="rId140" xr:uid="{6C0B24E5-F406-440F-A89E-EE4B3E7D8874}"/>
-    <hyperlink ref="L52" r:id="rId141" xr:uid="{75616D50-827D-4713-9801-B9636A00DEE7}"/>
-    <hyperlink ref="H3:H34" r:id="rId142" display="https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/" xr:uid="{2624B69C-4333-4068-8CF3-ECF77AFD3A91}"/>
-    <hyperlink ref="L2" r:id="rId143" xr:uid="{D903E260-6C60-429A-BA46-36324682A319}"/>
-    <hyperlink ref="L3:L34" r:id="rId144" display="https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/" xr:uid="{94A83D59-3143-43FD-A94B-C20A24C9FF3E}"/>
+    <hyperlink ref="E64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E67" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E68" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E69" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E70" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E71" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E72" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E73" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E74" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E75" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E76" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E77" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E78" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E79" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E80" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E81" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E82" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E83" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H35" r:id="rId84" xr:uid="{8E3D3C07-A1DF-45BD-8AD4-75DDD366862A}"/>
+    <hyperlink ref="H57:H62" r:id="rId85" display="https://github.com/ZaixuCui/PANDA" xr:uid="{A2CB303C-6B96-4817-83E4-41C22EA12383}"/>
+    <hyperlink ref="H68" r:id="rId86" xr:uid="{ADA2C313-CC44-45DA-8870-A0582B3E4113}"/>
+    <hyperlink ref="H69" r:id="rId87" xr:uid="{76FCB163-ED50-4DBC-A0E1-2F3F65C8ABE3}"/>
+    <hyperlink ref="H70:H73" r:id="rId88" display="https://www.rhino3d.com/" xr:uid="{B4809B50-A4EC-41E4-9785-1762609058CF}"/>
+    <hyperlink ref="H74:H75" r:id="rId89" display="https://www.rhino3d.com/" xr:uid="{5E36533B-8172-4B58-B3BC-99EEE2C0A335}"/>
+    <hyperlink ref="H76" r:id="rId90" xr:uid="{2E45DB8F-3A0E-490A-8509-635D8A2F3DB6}"/>
+    <hyperlink ref="H77" r:id="rId91" xr:uid="{AA689A24-9945-4EFC-8D85-A9D919ADD52D}"/>
+    <hyperlink ref="H78" r:id="rId92" xr:uid="{DEB83A23-1E9D-4EAA-83F2-F04572D375F2}"/>
+    <hyperlink ref="H79" r:id="rId93" xr:uid="{EC17B8CF-A311-41BC-9F4D-A3BC7B0DDC69}"/>
+    <hyperlink ref="H80:H81" r:id="rId94" display="https://www.rhino3d.com/" xr:uid="{332CBF04-5D33-4F0C-8625-9FD8177182F7}"/>
+    <hyperlink ref="H82" r:id="rId95" xr:uid="{E378DF0D-3339-4660-9ED7-B6770E235E48}"/>
+    <hyperlink ref="H83" r:id="rId96" xr:uid="{800F4166-C89D-43F2-9101-55DAEE8DAF98}"/>
+    <hyperlink ref="H106" r:id="rId97" xr:uid="{4DB9BF32-2E40-4FD1-B764-9D657B27D0B0}"/>
+    <hyperlink ref="H84" r:id="rId98" xr:uid="{095B13C8-EA3A-484D-A940-549028A05848}"/>
+    <hyperlink ref="H85:H99" r:id="rId99" display="https://github.com/alexdobin/STAR" xr:uid="{00F43458-B8AC-4E0E-B09F-8946462A6913}"/>
+    <hyperlink ref="H100" r:id="rId100" xr:uid="{7055A736-01E1-4AF8-85CA-45B773C1EE8E}"/>
+    <hyperlink ref="H101:H104" r:id="rId101" display="https://www.dnastar.com/" xr:uid="{C78180D7-218B-4918-AC5E-8A43A35310AD}"/>
+    <hyperlink ref="H105" r:id="rId102" xr:uid="{F2695FC1-29EA-4674-8F45-902012B3C8C4}"/>
+    <hyperlink ref="H107:H112" r:id="rId103" display="https://github.com/alexdobin/STAR" xr:uid="{D975C251-4E3C-484A-8614-2D288946FC00}"/>
+    <hyperlink ref="H113" r:id="rId104" xr:uid="{34FAF9B3-4D7F-44F7-A342-C504B1D017C4}"/>
+    <hyperlink ref="H118" r:id="rId105" xr:uid="{9B395F25-D6C5-4EF9-B84A-913B2BC925A9}"/>
+    <hyperlink ref="H119:H124" r:id="rId106" display="https://github.com/alexdobin/STAR" xr:uid="{548AC85C-BAD6-47C8-BBB5-DEAB57DF74AB}"/>
+    <hyperlink ref="K57:K62" r:id="rId107" display="https://github.com/ZaixuCui/PANDA" xr:uid="{BA6FFF82-71D0-45DD-BE37-384B5CD2DF65}"/>
+    <hyperlink ref="K68" r:id="rId108" xr:uid="{D3BFEADB-CE25-4173-B7D7-A69D7F61D81E}"/>
+    <hyperlink ref="K69" r:id="rId109" xr:uid="{8B8F44DF-3A84-4351-ACEB-32FBCD78E1D0}"/>
+    <hyperlink ref="K70:K73" r:id="rId110" display="https://www.rhino3d.com/" xr:uid="{CF424946-F767-4B2A-BC2B-0F91DA46D96C}"/>
+    <hyperlink ref="K74:K75" r:id="rId111" display="https://www.rhino3d.com/" xr:uid="{A1E2C419-9BD9-4DEC-A6A4-FC31545E64EE}"/>
+    <hyperlink ref="K76" r:id="rId112" xr:uid="{C0ACD060-C7EE-406B-81D5-D76323753F9C}"/>
+    <hyperlink ref="K77" r:id="rId113" xr:uid="{8F014C50-F415-4785-A84B-87A5DD070770}"/>
+    <hyperlink ref="K78" r:id="rId114" xr:uid="{B263EDDF-6B68-4320-9A24-DB335CF7176D}"/>
+    <hyperlink ref="K79" r:id="rId115" xr:uid="{63DAB0E0-9A00-4FBC-9C4E-2926C853FD4C}"/>
+    <hyperlink ref="K80:K81" r:id="rId116" display="https://www.rhino3d.com/" xr:uid="{88B6715E-7368-41A8-91F9-BC8FA7D4C2C6}"/>
+    <hyperlink ref="K82" r:id="rId117" xr:uid="{3528AF2D-A6B0-4271-A4E4-BAF8928F9F48}"/>
+    <hyperlink ref="K83" r:id="rId118" xr:uid="{5B1777D0-05AC-4A50-BA46-5DFEE7DC9021}"/>
+    <hyperlink ref="K106" r:id="rId119" xr:uid="{B1C09F9C-C4D8-43DC-AE6B-62F8A5CC9F48}"/>
+    <hyperlink ref="K84" r:id="rId120" xr:uid="{C280687E-1D4C-4A03-950C-CC783760FA78}"/>
+    <hyperlink ref="K85:K99" r:id="rId121" display="https://github.com/alexdobin/STAR" xr:uid="{1E87F349-A785-49E0-9F33-FAC46828D92B}"/>
+    <hyperlink ref="K100" r:id="rId122" xr:uid="{56FCEF6E-8728-4772-A7D0-6E6465F0D105}"/>
+    <hyperlink ref="K101:K104" r:id="rId123" display="https://www.dnastar.com/" xr:uid="{4BBFAC2D-04E1-45D8-90B9-9EAD04D469AA}"/>
+    <hyperlink ref="K105" r:id="rId124" xr:uid="{B3BF87FD-404E-4E67-8FED-E42E8B24885B}"/>
+    <hyperlink ref="K107:K112" r:id="rId125" display="https://github.com/alexdobin/STAR" xr:uid="{7A7C54B5-70F6-4FC0-947F-8265B85E363A}"/>
+    <hyperlink ref="K118" r:id="rId126" xr:uid="{4BFC74BE-E33A-4E39-823D-EE994D3BC1A1}"/>
+    <hyperlink ref="K119:K124" r:id="rId127" display="https://github.com/alexdobin/STAR" xr:uid="{86BF1402-F220-4D69-BAB1-2BF6E4E77565}"/>
+    <hyperlink ref="H114:H117" r:id="rId128" display="https://r-spatial.github.io/stars/,https://cran.r-project.org/package=stars,https://github.com/r-spatial/stars/" xr:uid="{DE11D5C5-93F5-404F-A569-E405FE19D170}"/>
+    <hyperlink ref="K113" r:id="rId129" xr:uid="{09D1EA13-B0D6-474E-B413-0F35A82F7D62}"/>
+    <hyperlink ref="K114:K117" r:id="rId130" display="https://r-spatial.github.io/stars/,https://cran.r-project.org/package=stars,https://github.com/r-spatial/stars/" xr:uid="{B9D257A4-87C2-47CA-8865-B8F828ED1FFB}"/>
+    <hyperlink ref="H53" r:id="rId131" xr:uid="{E12CEFAF-7E0D-455D-BDFE-27EBDD5FA9F0}"/>
+    <hyperlink ref="H54:H56" r:id="rId132" display="https://github.com/pandas-dev/pandas,https://pypi.org/project/pandas/" xr:uid="{59901C81-8995-49E0-85BD-D26B8B9E7154}"/>
+    <hyperlink ref="K35" r:id="rId133" xr:uid="{21E18BB2-58BB-46D5-9A9F-69850DCB1B2D}"/>
+    <hyperlink ref="K53" r:id="rId134" xr:uid="{FB8F58A7-9989-4DED-91AD-183D39D27C93}"/>
+    <hyperlink ref="K54:K56" r:id="rId135" display="https://github.com/pandas-dev/pandas,https://pypi.org/project/pandas/" xr:uid="{DA26FA8C-C552-4288-A811-2DE8F731C128}"/>
+    <hyperlink ref="H52" r:id="rId136" xr:uid="{6C0B24E5-F406-440F-A89E-EE4B3E7D8874}"/>
+    <hyperlink ref="K52" r:id="rId137" xr:uid="{75616D50-827D-4713-9801-B9636A00DEE7}"/>
+    <hyperlink ref="H3:H34" r:id="rId138" display="https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/" xr:uid="{2624B69C-4333-4068-8CF3-ECF77AFD3A91}"/>
+    <hyperlink ref="K2" r:id="rId139" xr:uid="{D903E260-6C60-429A-BA46-36324682A319}"/>
+    <hyperlink ref="K3:K34" r:id="rId140" display="https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/" xr:uid="{94A83D59-3143-43FD-A94B-C20A24C9FF3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId145"/>
+  <pageSetup orientation="portrait" r:id="rId141"/>
 </worksheet>
 </file>
 
@@ -6759,10 +6579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6772,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6780,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6796,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6804,7 +6624,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6632,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6820,15 +6640,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,15 +6656,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/corpus/corpus_v1.xlsx
+++ b/corpus/corpus_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9486E17-5EC5-404E-B18F-23AB15FBA747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6B8319-9206-403C-B284-E5F1C2C2545F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
@@ -1082,9 +1082,6 @@
     <t>Luca Levrini,L. Paracchini,M. Nosotti</t>
   </si>
   <si>
-    <t>Id of the entry in the benchmark</t>
-  </si>
-  <si>
     <t>mention label as it appears in the original text</t>
   </si>
   <si>
@@ -1785,6 +1782,9 @@
   </si>
   <si>
     <t>https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/</t>
+  </si>
+  <si>
+    <t>Id of the entry in the corpus</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2147,7 @@
   </sheetPr>
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
@@ -2175,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -2196,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2222,13 +2222,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,13 +2254,13 @@
         <v>21</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2286,13 +2286,13 @@
         <v>26</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2318,13 +2318,13 @@
         <v>31</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2350,13 +2350,13 @@
         <v>36</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,13 +2382,13 @@
         <v>42</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2414,13 +2414,13 @@
         <v>47</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2446,13 +2446,13 @@
         <v>52</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,13 +2478,13 @@
         <v>57</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,13 +2510,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,13 +2542,13 @@
         <v>68</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,13 +2574,13 @@
         <v>73</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2606,13 +2606,13 @@
         <v>79</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,13 +2638,13 @@
         <v>84</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2670,13 +2670,13 @@
         <v>90</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,13 +2702,13 @@
         <v>95</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2734,13 +2734,13 @@
         <v>100</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,13 +2766,13 @@
         <v>105</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,13 +2798,13 @@
         <v>111</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,13 +2830,13 @@
         <v>95</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2862,13 +2862,13 @@
         <v>95</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2894,13 +2894,13 @@
         <v>118</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2926,13 +2926,13 @@
         <v>123</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2958,13 +2958,13 @@
         <v>123</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2990,13 +2990,13 @@
         <v>130</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3022,13 +3022,13 @@
         <v>135</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3054,13 +3054,13 @@
         <v>26</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,13 +3086,13 @@
         <v>141</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>141</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3150,13 +3150,13 @@
         <v>147</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3182,13 +3182,13 @@
         <v>147</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3214,13 +3214,13 @@
         <v>147</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3246,13 +3246,13 @@
         <v>147</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3278,13 +3278,13 @@
         <v>156</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3310,13 +3310,13 @@
         <v>161</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3342,13 +3342,13 @@
         <v>166</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,13 +3374,13 @@
         <v>171</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3406,13 +3406,13 @@
         <v>176</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3438,13 +3438,13 @@
         <v>181</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3470,13 +3470,13 @@
         <v>187</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3502,13 +3502,13 @@
         <v>192</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3534,13 +3534,13 @@
         <v>197</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3566,13 +3566,13 @@
         <v>202</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3598,13 +3598,13 @@
         <v>207</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,13 +3630,13 @@
         <v>135</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3662,13 +3662,13 @@
         <v>214</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3694,13 +3694,13 @@
         <v>219</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3726,13 +3726,13 @@
         <v>219</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3758,13 +3758,13 @@
         <v>225</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3790,13 +3790,13 @@
         <v>230</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3822,13 +3822,13 @@
         <v>236</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3854,13 +3854,13 @@
         <v>187</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3886,13 +3886,13 @@
         <v>192</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,13 +3918,13 @@
         <v>197</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,13 +3950,13 @@
         <v>202</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3982,13 +3982,13 @@
         <v>242</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4014,13 +4014,13 @@
         <v>247</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4046,13 +4046,13 @@
         <v>252</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4078,13 +4078,13 @@
         <v>257</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4110,13 +4110,13 @@
         <v>262</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4142,13 +4142,13 @@
         <v>262</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4174,14 +4174,14 @@
         <v>269</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4207,13 +4207,13 @@
         <v>274</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4239,14 +4239,14 @@
         <v>279</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4272,13 +4272,13 @@
         <v>284</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4304,13 +4304,13 @@
         <v>289</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4336,13 +4336,13 @@
         <v>295</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4368,16 +4368,16 @@
         <v>301</v>
       </c>
       <c r="H69" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K69" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4403,16 +4403,16 @@
         <v>301</v>
       </c>
       <c r="H70" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K70" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4438,16 +4438,16 @@
         <v>301</v>
       </c>
       <c r="H71" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K71" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4473,16 +4473,16 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K72" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4508,16 +4508,16 @@
         <v>301</v>
       </c>
       <c r="H73" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K73" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4543,16 +4543,16 @@
         <v>301</v>
       </c>
       <c r="H74" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K74" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4578,16 +4578,16 @@
         <v>312</v>
       </c>
       <c r="H75" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K75" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4613,16 +4613,16 @@
         <v>318</v>
       </c>
       <c r="H76" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K76" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4648,16 +4648,16 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K77" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4683,16 +4683,16 @@
         <v>326</v>
       </c>
       <c r="H78" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K78" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4718,16 +4718,16 @@
         <v>331</v>
       </c>
       <c r="H79" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K79" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4753,16 +4753,16 @@
         <v>336</v>
       </c>
       <c r="H80" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K80" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4788,16 +4788,16 @@
         <v>342</v>
       </c>
       <c r="H81" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K81" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4823,16 +4823,16 @@
         <v>348</v>
       </c>
       <c r="H82" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K82" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4856,16 +4856,16 @@
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K83" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4873,34 +4873,34 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="E84" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G84" s="7" t="s">
+      <c r="H84" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J84" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="J84" s="9" t="s">
+      <c r="K84" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4908,34 +4908,34 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="E85" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="H85" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I85" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J85" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K85" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4943,34 +4943,34 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="D86" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="E86" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="H86" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I86" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J86" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K86" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K86" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4978,34 +4978,34 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E87" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="H87" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I87" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J87" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K87" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5013,34 +5013,34 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="H88" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I88" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J88" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K88" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5048,34 +5048,34 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C89" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="E89" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="H89" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I89" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J89" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K89" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5083,34 +5083,34 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="E90" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="H90" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I90" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I90" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J90" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K90" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5118,34 +5118,34 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="E91" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="H91" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I91" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I91" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J91" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K91" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K91" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5153,34 +5153,34 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="E92" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="H92" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I92" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I92" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J92" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K92" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5188,34 +5188,34 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="E93" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="H93" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I93" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J93" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K93" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5223,34 +5223,34 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="D94" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="H94" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I94" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J94" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K94" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K94" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5258,34 +5258,34 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="E95" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="H95" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I95" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J95" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K95" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5293,34 +5293,34 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="E96" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="H96" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I96" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I96" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J96" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K96" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K96" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5328,34 +5328,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="E97" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="H97" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I97" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I97" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J97" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K97" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5363,34 +5363,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="E98" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="H98" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I98" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I98" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J98" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K98" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5398,34 +5398,34 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="D99" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="E99" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="H99" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I99" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I99" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J99" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K99" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5433,34 +5433,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="D100" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="E100" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G100" s="7" t="s">
+      <c r="H100" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>459</v>
-      </c>
       <c r="I100" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5468,34 +5468,34 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="E101" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>464</v>
-      </c>
       <c r="H101" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5503,34 +5503,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C102" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="E102" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="H102" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5538,34 +5538,34 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="E103" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="H103" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5573,34 +5573,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C104" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="E104" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="H104" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5608,34 +5608,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="D105" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="E105" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="H105" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I105" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I105" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J105" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K105" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5643,34 +5643,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C106" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="E106" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F106" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="H106" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I106" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I106" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J106" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K106" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="K106" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5678,34 +5678,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="E107" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="F107" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>495</v>
-      </c>
       <c r="H107" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I107" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J107" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K107" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="K107" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5713,34 +5713,34 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C108" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="E108" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="H108" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I108" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I108" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J108" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K108" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="K108" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5748,34 +5748,34 @@
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="E109" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="G109" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="H109" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I109" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I109" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J109" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K109" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="K109" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5783,34 +5783,34 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C110" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="E110" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F110" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="H110" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I110" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I110" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J110" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K110" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5818,34 +5818,34 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="E111" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="H111" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I111" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I111" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J111" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K111" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="K111" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5853,34 +5853,34 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C112" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="E112" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F112" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F112" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="H112" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I112" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I112" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J112" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K112" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="K112" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,34 +5888,34 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="D113" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="E113" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="H113" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5923,34 +5923,34 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="E114" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F114" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="G114" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>532</v>
-      </c>
       <c r="H114" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5958,34 +5958,34 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="E115" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="G115" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="F115" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="H115" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5993,34 +5993,34 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C116" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="E116" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F116" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F116" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>542</v>
-      </c>
       <c r="H116" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6028,34 +6028,34 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="E117" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="F117" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>547</v>
-      </c>
       <c r="H117" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6063,34 +6063,34 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="D118" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="E118" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F118" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F118" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>553</v>
-      </c>
       <c r="H118" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I118" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I118" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J118" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K118" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K118" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6098,34 +6098,34 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="E119" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="F119" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>559</v>
-      </c>
       <c r="H119" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J119" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K119" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6133,34 +6133,34 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E120" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>553</v>
-      </c>
       <c r="H120" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I120" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I120" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J120" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K120" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K120" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6168,34 +6168,34 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C121" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="D121" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="E121" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="H121" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I121" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I121" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J121" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K121" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K121" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6203,34 +6203,34 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C122" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="E122" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F122" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>571</v>
-      </c>
       <c r="H122" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I122" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I122" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J122" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K122" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K122" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6238,34 +6238,34 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="E123" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F123" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>576</v>
-      </c>
       <c r="H123" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I123" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I123" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J123" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K123" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6273,34 +6273,34 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="D124" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="E124" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="G124" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="H124" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I124" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I124" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="J124" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K124" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6581,8 +6581,8 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6608,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6624,7 +6624,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6640,15 +6640,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
